--- a/mapping_schemes/east/UGA_RES.xlsx
+++ b/mapping_schemes/east/UGA_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/East/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FDAFC6-956B-7B4B-956D-EF7694BF554F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969B5D4A-1EB2-D143-9672-555F6FD90A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="460" windowWidth="14060" windowHeight="17440" firstSheet="1" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="12900" yWindow="460" windowWidth="14060" windowHeight="17440" firstSheet="1" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="83">
   <si>
     <t>MATO</t>
   </si>
@@ -1033,10 +1033,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1306,16 +1306,25 @@
         <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -1426,13 +1435,12 @@
       <c r="A42" s="10"/>
       <c r="B42" s="5"/>
       <c r="C42" s="3"/>
-      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
@@ -1474,6 +1482,7 @@
       <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
@@ -1521,9 +1530,9 @@
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
@@ -1538,7 +1547,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -1553,11 +1562,11 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
@@ -1613,6 +1622,11 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,7 +1638,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
